--- a/df_list_20241127.xlsx
+++ b/df_list_20241127.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E0C36-AC09-4CDB-A38E-62DA47D8A86A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18789" windowHeight="7209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="06d7/PBT8pEiSWMOhucpBmdtCiIiVE0BM3iVdkQLMUY="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="332">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -1009,49 +1018,74 @@
   </si>
   <si>
     <t>2025년 김포시 시정소식지「김포마루」제작 용역 제안서평가위원회(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>수집일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1059,11 +1093,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1077,43 +1117,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1303,23 +1358,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="4" width="8.69140625" customWidth="1"/>
+    <col min="5" max="5" width="18.61328125" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,8 +1395,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1350,10 +1413,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45622</v>
+      </c>
+      <c r="F2" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1367,10 +1433,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45623</v>
+      </c>
+      <c r="F3" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.6">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1384,10 +1453,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45622</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.6">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1401,10 +1473,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45623</v>
+      </c>
+      <c r="F5" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.6">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1418,10 +1493,13 @@
         <v>24</v>
       </c>
       <c r="E6" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45623</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.6">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1435,10 +1513,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>45623</v>
+      </c>
+      <c r="F7" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.6">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1452,10 +1533,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45623</v>
+      </c>
+      <c r="F8" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.6">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1469,10 +1553,13 @@
         <v>27</v>
       </c>
       <c r="E9" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>45622</v>
+      </c>
+      <c r="F9" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.6">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1486,10 +1573,13 @@
         <v>28</v>
       </c>
       <c r="E10" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>45622</v>
+      </c>
+      <c r="F10" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.6">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1503,10 +1593,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>45621</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.6">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1520,10 +1613,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>45621</v>
+      </c>
+      <c r="F12" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.6">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1537,10 +1633,13 @@
         <v>34</v>
       </c>
       <c r="E13" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>45623</v>
+      </c>
+      <c r="F13" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.6">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1554,10 +1653,13 @@
         <v>36</v>
       </c>
       <c r="E14" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>45621</v>
+      </c>
+      <c r="F14" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.6">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1571,10 +1673,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45623</v>
+      </c>
+      <c r="F15" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.6">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1588,10 +1693,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>45623</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.6">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1605,10 +1713,13 @@
         <v>42</v>
       </c>
       <c r="E17" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>45623</v>
+      </c>
+      <c r="F17" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.6">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1622,10 +1733,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>45622</v>
+      </c>
+      <c r="F18" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.6">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1639,10 +1753,13 @@
         <v>44</v>
       </c>
       <c r="E19" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>45622</v>
+      </c>
+      <c r="F19" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.6">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1656,10 +1773,13 @@
         <v>45</v>
       </c>
       <c r="E20" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F20" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1673,10 +1793,13 @@
         <v>46</v>
       </c>
       <c r="E21" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F21" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1690,10 +1813,13 @@
         <v>47</v>
       </c>
       <c r="E22" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1707,10 +1833,13 @@
         <v>48</v>
       </c>
       <c r="E23" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F23" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1724,10 +1853,13 @@
         <v>49</v>
       </c>
       <c r="E24" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F24" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1741,10 +1873,13 @@
         <v>53</v>
       </c>
       <c r="E25" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F25" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1758,10 +1893,13 @@
         <v>54</v>
       </c>
       <c r="E26" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F26" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1775,10 +1913,13 @@
         <v>58</v>
       </c>
       <c r="E27" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F27" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -1792,10 +1933,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1809,10 +1953,13 @@
         <v>62</v>
       </c>
       <c r="E29" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F29" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -1826,10 +1973,13 @@
         <v>20</v>
       </c>
       <c r="E30" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -1843,10 +1993,13 @@
         <v>68</v>
       </c>
       <c r="E31" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F31" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -1860,10 +2013,13 @@
         <v>72</v>
       </c>
       <c r="E32" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F32" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -1877,10 +2033,13 @@
         <v>73</v>
       </c>
       <c r="E33" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F33" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -1894,10 +2053,13 @@
         <v>77</v>
       </c>
       <c r="E34" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F34" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1911,10 +2073,13 @@
         <v>81</v>
       </c>
       <c r="E35" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F35" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
@@ -1928,10 +2093,13 @@
         <v>82</v>
       </c>
       <c r="E36" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F36" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
@@ -1945,10 +2113,13 @@
         <v>81</v>
       </c>
       <c r="E37" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F37" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -1962,10 +2133,13 @@
         <v>82</v>
       </c>
       <c r="E38" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F38" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1979,10 +2153,13 @@
         <v>81</v>
       </c>
       <c r="E39" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F39" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -1996,10 +2173,13 @@
         <v>82</v>
       </c>
       <c r="E40" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F40" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -2013,10 +2193,13 @@
         <v>81</v>
       </c>
       <c r="E41" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F41" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -2030,10 +2213,13 @@
         <v>82</v>
       </c>
       <c r="E42" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F42" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
@@ -2047,10 +2233,13 @@
         <v>81</v>
       </c>
       <c r="E43" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F43" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -2064,10 +2253,13 @@
         <v>82</v>
       </c>
       <c r="E44" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F44" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -2081,10 +2273,13 @@
         <v>81</v>
       </c>
       <c r="E45" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F45" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>78</v>
       </c>
@@ -2098,10 +2293,13 @@
         <v>82</v>
       </c>
       <c r="E46" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F46" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>78</v>
       </c>
@@ -2115,10 +2313,13 @@
         <v>81</v>
       </c>
       <c r="E47" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -2132,10 +2333,13 @@
         <v>82</v>
       </c>
       <c r="E48" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F48" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -2149,10 +2353,13 @@
         <v>86</v>
       </c>
       <c r="E49" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F49" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -2166,10 +2373,13 @@
         <v>90</v>
       </c>
       <c r="E50" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F50" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>91</v>
       </c>
@@ -2183,10 +2393,13 @@
         <v>94</v>
       </c>
       <c r="E51" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F51" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -2200,10 +2413,13 @@
         <v>98</v>
       </c>
       <c r="E52" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F52" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
@@ -2217,10 +2433,13 @@
         <v>102</v>
       </c>
       <c r="E53" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F53" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>103</v>
       </c>
@@ -2234,10 +2453,13 @@
         <v>106</v>
       </c>
       <c r="E54" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F54" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>103</v>
       </c>
@@ -2251,10 +2473,13 @@
         <v>107</v>
       </c>
       <c r="E55" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F55" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
@@ -2268,10 +2493,13 @@
         <v>108</v>
       </c>
       <c r="E56" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F56" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -2285,10 +2513,13 @@
         <v>109</v>
       </c>
       <c r="E57" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F57" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>103</v>
       </c>
@@ -2302,10 +2533,13 @@
         <v>110</v>
       </c>
       <c r="E58" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F58" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>111</v>
       </c>
@@ -2319,10 +2553,13 @@
         <v>114</v>
       </c>
       <c r="E59" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F59" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -2336,10 +2573,13 @@
         <v>118</v>
       </c>
       <c r="E60" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F60" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -2353,10 +2593,13 @@
         <v>122</v>
       </c>
       <c r="E61" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F61" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
@@ -2370,10 +2613,13 @@
         <v>126</v>
       </c>
       <c r="E62" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F62" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>127</v>
       </c>
@@ -2387,10 +2633,13 @@
         <v>130</v>
       </c>
       <c r="E63" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F63" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>131</v>
       </c>
@@ -2404,10 +2653,13 @@
         <v>134</v>
       </c>
       <c r="E64" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F64" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
@@ -2421,10 +2673,13 @@
         <v>138</v>
       </c>
       <c r="E65" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F65" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>139</v>
       </c>
@@ -2438,10 +2693,13 @@
         <v>142</v>
       </c>
       <c r="E66" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F66" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>143</v>
       </c>
@@ -2455,10 +2713,13 @@
         <v>146</v>
       </c>
       <c r="E67" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F67" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>147</v>
       </c>
@@ -2472,10 +2733,13 @@
         <v>150</v>
       </c>
       <c r="E68" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F68" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>151</v>
       </c>
@@ -2489,10 +2753,13 @@
         <v>154</v>
       </c>
       <c r="E69" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F69" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>151</v>
       </c>
@@ -2506,10 +2773,13 @@
         <v>156</v>
       </c>
       <c r="E70" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F70" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>157</v>
       </c>
@@ -2523,10 +2793,13 @@
         <v>160</v>
       </c>
       <c r="E71" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F71" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>157</v>
       </c>
@@ -2540,10 +2813,13 @@
         <v>162</v>
       </c>
       <c r="E72" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F72" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>157</v>
       </c>
@@ -2557,10 +2833,13 @@
         <v>164</v>
       </c>
       <c r="E73" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F73" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>165</v>
       </c>
@@ -2574,10 +2853,13 @@
         <v>168</v>
       </c>
       <c r="E74" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F74" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>169</v>
       </c>
@@ -2591,10 +2873,13 @@
         <v>160</v>
       </c>
       <c r="E75" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F75" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>169</v>
       </c>
@@ -2608,10 +2893,13 @@
         <v>162</v>
       </c>
       <c r="E76" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F76" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>169</v>
       </c>
@@ -2625,10 +2913,13 @@
         <v>172</v>
       </c>
       <c r="E77" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F77" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>173</v>
       </c>
@@ -2642,10 +2933,13 @@
         <v>176</v>
       </c>
       <c r="E78" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F78" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>177</v>
       </c>
@@ -2659,10 +2953,13 @@
         <v>180</v>
       </c>
       <c r="E79" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F79" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>181</v>
       </c>
@@ -2676,10 +2973,13 @@
         <v>184</v>
       </c>
       <c r="E80" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F80" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>185</v>
       </c>
@@ -2693,10 +2993,13 @@
         <v>188</v>
       </c>
       <c r="E81" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F81" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>189</v>
       </c>
@@ -2710,10 +3013,13 @@
         <v>192</v>
       </c>
       <c r="E82" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F82" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>189</v>
       </c>
@@ -2727,10 +3033,13 @@
         <v>193</v>
       </c>
       <c r="E83" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F83" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>189</v>
       </c>
@@ -2744,10 +3053,13 @@
         <v>194</v>
       </c>
       <c r="E84" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F84" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>195</v>
       </c>
@@ -2761,10 +3073,13 @@
         <v>198</v>
       </c>
       <c r="E85" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F85" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>199</v>
       </c>
@@ -2778,10 +3093,13 @@
         <v>202</v>
       </c>
       <c r="E86" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F86" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
@@ -2795,10 +3113,13 @@
         <v>206</v>
       </c>
       <c r="E87" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F87" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>207</v>
       </c>
@@ -2812,10 +3133,13 @@
         <v>210</v>
       </c>
       <c r="E88" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F88" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>211</v>
       </c>
@@ -2829,10 +3153,13 @@
         <v>214</v>
       </c>
       <c r="E89" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F89" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>215</v>
       </c>
@@ -2846,10 +3173,13 @@
         <v>218</v>
       </c>
       <c r="E90" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F90" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>215</v>
       </c>
@@ -2863,10 +3193,13 @@
         <v>219</v>
       </c>
       <c r="E91" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F91" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>220</v>
       </c>
@@ -2880,10 +3213,13 @@
         <v>223</v>
       </c>
       <c r="E92" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F92" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>224</v>
       </c>
@@ -2897,10 +3233,13 @@
         <v>227</v>
       </c>
       <c r="E93" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F93" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>228</v>
       </c>
@@ -2914,10 +3253,13 @@
         <v>231</v>
       </c>
       <c r="E94" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F94" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>232</v>
       </c>
@@ -2931,10 +3273,13 @@
         <v>235</v>
       </c>
       <c r="E95" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F95" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -2948,10 +3293,13 @@
         <v>239</v>
       </c>
       <c r="E96" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F96" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>240</v>
       </c>
@@ -2965,10 +3313,13 @@
         <v>243</v>
       </c>
       <c r="E97" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F97" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>244</v>
       </c>
@@ -2982,10 +3333,13 @@
         <v>247</v>
       </c>
       <c r="E98" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F98" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
@@ -2999,10 +3353,13 @@
         <v>251</v>
       </c>
       <c r="E99" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F99" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>252</v>
       </c>
@@ -3016,10 +3373,13 @@
         <v>255</v>
       </c>
       <c r="E100" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F100" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>252</v>
       </c>
@@ -3033,10 +3393,13 @@
         <v>257</v>
       </c>
       <c r="E101" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F101" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>252</v>
       </c>
@@ -3050,10 +3413,13 @@
         <v>258</v>
       </c>
       <c r="E102" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F102" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>259</v>
       </c>
@@ -3067,10 +3433,13 @@
         <v>262</v>
       </c>
       <c r="E103" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F103" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>263</v>
       </c>
@@ -3084,10 +3453,13 @@
         <v>266</v>
       </c>
       <c r="E104" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F104" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>267</v>
       </c>
@@ -3101,10 +3473,13 @@
         <v>270</v>
       </c>
       <c r="E105" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F105" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>271</v>
       </c>
@@ -3118,10 +3493,13 @@
         <v>274</v>
       </c>
       <c r="E106" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F106" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>275</v>
       </c>
@@ -3135,10 +3513,13 @@
         <v>278</v>
       </c>
       <c r="E107" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F107" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>275</v>
       </c>
@@ -3152,10 +3533,13 @@
         <v>279</v>
       </c>
       <c r="E108" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F108" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>275</v>
       </c>
@@ -3169,10 +3553,13 @@
         <v>281</v>
       </c>
       <c r="E109" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F109" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>282</v>
       </c>
@@ -3186,10 +3573,13 @@
         <v>285</v>
       </c>
       <c r="E110" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F110" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>286</v>
       </c>
@@ -3203,10 +3593,13 @@
         <v>289</v>
       </c>
       <c r="E111" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F111" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>290</v>
       </c>
@@ -3220,10 +3613,13 @@
         <v>293</v>
       </c>
       <c r="E112" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F112" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>290</v>
       </c>
@@ -3237,10 +3633,13 @@
         <v>295</v>
       </c>
       <c r="E113" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F113" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>290</v>
       </c>
@@ -3254,10 +3653,13 @@
         <v>296</v>
       </c>
       <c r="E114" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F114" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>297</v>
       </c>
@@ -3271,10 +3673,13 @@
         <v>300</v>
       </c>
       <c r="E115" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F115" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>301</v>
       </c>
@@ -3288,10 +3693,13 @@
         <v>304</v>
       </c>
       <c r="E116" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F116" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>305</v>
       </c>
@@ -3305,10 +3713,13 @@
         <v>308</v>
       </c>
       <c r="E117" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F117" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>305</v>
       </c>
@@ -3322,10 +3733,13 @@
         <v>309</v>
       </c>
       <c r="E118" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F118" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>305</v>
       </c>
@@ -3339,10 +3753,13 @@
         <v>310</v>
       </c>
       <c r="E119" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F119" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>311</v>
       </c>
@@ -3356,10 +3773,13 @@
         <v>314</v>
       </c>
       <c r="E120" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F120" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>311</v>
       </c>
@@ -3373,10 +3793,13 @@
         <v>316</v>
       </c>
       <c r="E121" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F121" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>199</v>
       </c>
@@ -3390,10 +3813,13 @@
         <v>202</v>
       </c>
       <c r="E122" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F122" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>317</v>
       </c>
@@ -3407,10 +3833,13 @@
         <v>320</v>
       </c>
       <c r="E123" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F123" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>259</v>
       </c>
@@ -3424,10 +3853,13 @@
         <v>262</v>
       </c>
       <c r="E124" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F124" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>259</v>
       </c>
@@ -3441,10 +3873,13 @@
         <v>321</v>
       </c>
       <c r="E125" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F125" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>259</v>
       </c>
@@ -3458,10 +3893,13 @@
         <v>322</v>
       </c>
       <c r="E126" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F126" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>323</v>
       </c>
@@ -3475,10 +3913,13 @@
         <v>326</v>
       </c>
       <c r="E127" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F127" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>305</v>
       </c>
@@ -3492,10 +3933,13 @@
         <v>308</v>
       </c>
       <c r="E128" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F128" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>305</v>
       </c>
@@ -3509,10 +3953,13 @@
         <v>309</v>
       </c>
       <c r="E129" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F129" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>305</v>
       </c>
@@ -3526,10 +3973,13 @@
         <v>310</v>
       </c>
       <c r="E130" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F130" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>311</v>
       </c>
@@ -3543,10 +3993,13 @@
         <v>314</v>
       </c>
       <c r="E131" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F131" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>311</v>
       </c>
@@ -3560,10 +4013,13 @@
         <v>316</v>
       </c>
       <c r="E132" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>327</v>
       </c>
@@ -3577,10 +4033,13 @@
         <v>330</v>
       </c>
       <c r="E133" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F133" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>199</v>
       </c>
@@ -3594,10 +4053,13 @@
         <v>202</v>
       </c>
       <c r="E134" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F134" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>317</v>
       </c>
@@ -3611,10 +4073,13 @@
         <v>320</v>
       </c>
       <c r="E135" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F135" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>259</v>
       </c>
@@ -3628,10 +4093,13 @@
         <v>262</v>
       </c>
       <c r="E136" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F136" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>323</v>
       </c>
@@ -3645,16 +4113,19 @@
         <v>326</v>
       </c>
       <c r="E137" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+        <v>45622</v>
+      </c>
+      <c r="F137" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -4512,32 +4983,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C117"/>
-    <hyperlink r:id="rId2" ref="C118"/>
-    <hyperlink r:id="rId3" ref="C119"/>
-    <hyperlink r:id="rId4" ref="C120"/>
-    <hyperlink r:id="rId5" ref="C121"/>
-    <hyperlink r:id="rId6" ref="C122"/>
-    <hyperlink r:id="rId7" ref="C123"/>
-    <hyperlink r:id="rId8" ref="C124"/>
-    <hyperlink r:id="rId9" ref="C125"/>
-    <hyperlink r:id="rId10" ref="C126"/>
-    <hyperlink r:id="rId11" ref="C127"/>
-    <hyperlink r:id="rId12" ref="C128"/>
-    <hyperlink r:id="rId13" ref="C129"/>
-    <hyperlink r:id="rId14" ref="C130"/>
-    <hyperlink r:id="rId15" ref="C131"/>
-    <hyperlink r:id="rId16" ref="C132"/>
-    <hyperlink r:id="rId17" ref="C133"/>
-    <hyperlink r:id="rId18" ref="C134"/>
-    <hyperlink r:id="rId19" ref="C135"/>
-    <hyperlink r:id="rId20" ref="C136"/>
-    <hyperlink r:id="rId21" ref="C137"/>
+    <hyperlink ref="C117" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C118" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C119" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C120" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C121" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C122" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C123" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C124" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C125" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C126" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C128" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C129" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C130" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C131" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C132" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C133" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C134" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C135" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C136" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C137" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId22"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId22"/>
 </worksheet>
 </file>